--- a/biology/Botanique/Bugrane_de_Colonna/Bugrane_de_Colonna.xlsx
+++ b/biology/Botanique/Bugrane_de_Colonna/Bugrane_de_Colonna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ononis pusilla, de nom commun Bugrane naine, est une espèce de plantes vivace buissonnante de la famille des Fabaceae et du genre Ononis.
 </t>
@@ -511,18 +523,16 @@
           <t>Appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bugrane naine possède de nombreux noms communs, dont :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La bugrane naine possède de nombreux noms communs, dont :
 Bugrane de Colonna
 Bugrane fluette
 Bugrane naine
 Ononis de Colonna
-Ononis grêle
-Étymologie du nom
-« Du grec onos, « âne », onêmi, « je délecte » : plante broutée avec plaisir par les ânes. » (Coste).
-« Grec onônis et onosma, noms anciens de ces plantes ; d’onos, « âne », osmê, « odeur », et peut-être onis, « crottin d’âne » : plusieurs espèces sont fétides. » (Fournier)[1].
-</t>
+Ononis grêle</t>
         </is>
       </c>
     </row>
@@ -547,15 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Appellation</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante vivace de 5 à 25 cm de hauteur, fortement velu-glanduleux ; les feuilles inférieures et moyennes sont constituées de 3 folioles, la terminale brièvement pétiolulée ; les feuilles supérieures sont généralement réduites à une foliole ; les stipules ovales-lancéolées glanduleuses sont bien plus courtes que le pétiole[2].
-Appareil reproducteur
-Les fleurs sont jaunes, disposées à l'aisselle des feuilles, formant une grappe dense ; les fleurs presque sessiles, dépassées par les feuilles ; la corolle est plus courte que le calice, ou même parfois avortée ; le calice est à lobes lancéolés linéaires. Le fruit est une gousse noirâtre de 6 à 8 mm de longueur, pubescente, ne dépassant pas le calice. Les graines sont finement tuberculeuses. La floraison se déroule de juin à août[2].
+          <t>Étymologie du nom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Du grec onos, « âne », onêmi, « je délecte » : plante broutée avec plaisir par les ânes. » (Coste).
+« Grec onônis et onosma, noms anciens de ces plantes ; d’onos, « âne », osmê, « odeur », et peut-être onis, « crottin d’âne » : plusieurs espèces sont fétides. » (Fournier).
 </t>
         </is>
       </c>
@@ -581,12 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La plante pousse dans les pelouses et les rocailles arides de basse altitude, jusqu'à 1 800 m d'altitude[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace de 5 à 25 cm de hauteur, fortement velu-glanduleux ; les feuilles inférieures et moyennes sont constituées de 3 folioles, la terminale brièvement pétiolulée ; les feuilles supérieures sont généralement réduites à une foliole ; les stipules ovales-lancéolées glanduleuses sont bien plus courtes que le pétiole.
 </t>
         </is>
       </c>
@@ -612,12 +632,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La bugrane naine est originaire d'Europe méridionale, présente dans le sud-ouest de l'Asie et en Afrique du Nord. Elle se rencontre dans presque toute la France, sauf dans le nord et le nord-est : elle semble absente du Nord-Pas-de-Calais, de l'Alsace et de la Lorraine ; elle est très rare en Corse[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont jaunes, disposées à l'aisselle des feuilles, formant une grappe dense ; les fleurs presque sessiles, dépassées par les feuilles ; la corolle est plus courte que le calice, ou même parfois avortée ; le calice est à lobes lancéolés linéaires. Le fruit est une gousse noirâtre de 6 à 8 mm de longueur, pubescente, ne dépassant pas le calice. Les graines sont finement tuberculeuses. La floraison se déroule de juin à août.
 </t>
         </is>
       </c>
@@ -643,12 +669,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Menaces et conservation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est en régression, principalement dans le nord de la France, certaines populations semblent avoir entièrement disparu (notamment en Basse-Normandie). Ononis pusilla est menacée par la régression progressive des pelouses et landes calcicoles (fermeture des milieux), principalement dans la moitié nord de la France[2]. L'espèce est inscrite sur la liste rouge de nombreuses régions françaises[4].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante pousse dans les pelouses et les rocailles arides de basse altitude, jusqu'à 1 800 m d'altitude.
 </t>
         </is>
       </c>
@@ -674,10 +702,78 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bugrane naine est originaire d'Europe méridionale, présente dans le sud-ouest de l'Asie et en Afrique du Nord. Elle se rencontre dans presque toute la France, sauf dans le nord et le nord-est : elle semble absente du Nord-Pas-de-Calais, de l'Alsace et de la Lorraine ; elle est très rare en Corse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bugrane_de_Colonna</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugrane_de_Colonna</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Menaces et conservation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est en régression, principalement dans le nord de la France, certaines populations semblent avoir entièrement disparu (notamment en Basse-Normandie). Ononis pusilla est menacée par la régression progressive des pelouses et landes calcicoles (fermeture des milieux), principalement dans la moitié nord de la France. L'espèce est inscrite sur la liste rouge de nombreuses régions françaises.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bugrane_de_Colonna</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugrane_de_Colonna</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Anonis pusilla (L.) Lam., 1779
 Bonaga columnae (All.) Medik., 1787
@@ -695,7 +791,7 @@
 Ononis minuta Pallas, 1806
 Ononis minutissima Jacq., 1775
 Ononis parviflora Lam., 1785
-Ononis subocculta Vill., 1779[4]</t>
+Ononis subocculta Vill., 1779</t>
         </is>
       </c>
     </row>
